--- a/BOM/BOM Open PM monitor.xlsx
+++ b/BOM/BOM Open PM monitor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EfektaLab\Изображения\Open PM Monitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F95AD04-9336-4B63-A68B-5588CC1053F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470DF8D6-E21C-443C-8FAA-31542EA06493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <t>Comment</t>
   </si>
@@ -257,6 +257,21 @@
   </si>
   <si>
     <t>PM ASAIR APM10</t>
+  </si>
+  <si>
+    <t>https://aliexpress.ru/item/1005005324850574.html</t>
+  </si>
+  <si>
+    <t>Антенна 2.4  IPEX</t>
+  </si>
+  <si>
+    <t>Антенна липучка IPEX 10 см - ZigBee-Shop.ru</t>
+  </si>
+  <si>
+    <t>Саморезы M1.4 5мм</t>
+  </si>
+  <si>
+    <t>https://aliexpress.ru/item/32835249403.html</t>
   </si>
 </sst>
 </file>
@@ -544,7 +559,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -577,6 +592,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -908,7 +926,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E24"/>
+  <dimension ref="B1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -931,7 +949,7 @@
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -939,19 +957,19 @@
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="2:5" ht="16" customHeight="1">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -960,12 +978,12 @@
       <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="17" customHeight="1">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -974,12 +992,12 @@
       <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -988,12 +1006,12 @@
       <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1002,12 +1020,12 @@
       <c r="D7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1016,12 +1034,12 @@
       <c r="D8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1030,12 +1048,12 @@
       <c r="D9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1044,12 +1062,12 @@
       <c r="D10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="22" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1058,12 +1076,12 @@
       <c r="D11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1072,12 +1090,12 @@
       <c r="D12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="22" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1086,12 +1104,12 @@
       <c r="D13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="22" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1100,26 +1118,26 @@
       <c r="D14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="12" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="23" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -1128,84 +1146,84 @@
       <c r="D16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="22" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>63</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="23"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="22" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>71</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="23"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" spans="2:5" ht="15" thickBot="1">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="27"/>
+      <c r="E21" s="28"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="29" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1213,8 +1231,27 @@
       <c r="B24" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="29" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1249,8 +1286,11 @@
     <hyperlink ref="D21" r:id="rId28" xr:uid="{0B80C0A3-2897-4287-83E6-554BB05A59CC}"/>
     <hyperlink ref="D23" r:id="rId29" xr:uid="{BB423266-368F-48C4-92BD-088184C222AC}"/>
     <hyperlink ref="D24" r:id="rId30" xr:uid="{7D0F9E74-2204-4261-9BB0-B8923A84DD07}"/>
+    <hyperlink ref="D25" r:id="rId31" xr:uid="{1426263F-05AB-4851-8288-B0E4519DBF2F}"/>
+    <hyperlink ref="E25" r:id="rId32" display="https://zigbee-shop.ru/catalog/goods/1653" xr:uid="{F01C69ED-7070-4C22-98CE-847E04450BC0}"/>
+    <hyperlink ref="D26" r:id="rId33" xr:uid="{399D535D-13EE-4A63-B84F-8AB532F05E0D}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>